--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109320.0300090317</v>
+        <v>107790.2928907787</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23511606.65325127</v>
+        <v>23347074.56340345</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8806943.2466507</v>
+        <v>8645685.345390845</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4968500.552402927</v>
+        <v>5022593.547069491</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>181.9245108583957</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>114.6874234957162</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.30944613818192</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>67.65538200560648</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>383.7717122625497</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>20.97478045648731</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>25.30817366908145</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1133,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>409.5639930153339</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>43.2065538240437</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>42.59920215195948</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,7 +1350,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>200.2481571669428</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1373,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>383.0646100373297</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>203.1869771812474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>159.1000412385906</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>25.30817366908145</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>102.4752951603978</v>
       </c>
       <c r="D14" t="n">
-        <v>140.4073095599024</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>224.7755464071454</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>403.1572050940909</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>327.9183258711724</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>106.0626366504663</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2137,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>149.4370413361365</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>28.60468344882636</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>113.8272511779464</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>132.8051127118025</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2336,7 +2338,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>257.62495382267</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>90.93060034033053</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2792,25 +2794,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>146.3478931281813</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>149.4370413361365</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>60.94899222869572</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3029,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>71.28824621501914</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>156.5225773297128</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>167.7240627510922</v>
+        <v>155.5869679636097</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.1441627534537</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>56.7689519481797</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>64.31307662928364</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>82.62483121292166</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3740,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>170.6667160731183</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>185.557375067808</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>13.5144690908967</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,13 +3979,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>167.7518186677722</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>163.880098258614</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>106.0626366504663</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.705800781806</v>
+        <v>1581.337547761512</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>1581.337547761512</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94366860160834</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94366860160834</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1581.337547761512</v>
       </c>
       <c r="V2" t="n">
-        <v>1030.847379071119</v>
+        <v>1581.337547761512</v>
       </c>
       <c r="W2" t="n">
-        <v>625.9919244821526</v>
+        <v>1581.337547761512</v>
       </c>
       <c r="X2" t="n">
-        <v>625.9919244821526</v>
+        <v>1581.337547761512</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.705800781806</v>
+        <v>1581.337547761512</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,37 +4397,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>874.0494664914149</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>874.0494664914149</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>874.0494664914149</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>552.97043790589</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4087263891149</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4486,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N4" t="n">
-        <v>1653.597487995201</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O4" t="n">
-        <v>1653.597487995201</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
-        <v>1653.597487995201</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4528,10 +4530,10 @@
         <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y4" t="n">
-        <v>613.8890703687</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.2824383042412</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C5" t="n">
-        <v>102.2824383042412</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D5" t="n">
-        <v>33.94366860160834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4568,22 +4570,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4601,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y5" t="n">
-        <v>102.2824383042412</v>
+        <v>890.3927724551322</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4632,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4644,25 +4646,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>60.00734176206595</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0602407069692</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>900.1131396518725</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>1320.166038596776</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1320.166038596776</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.6920270441282</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C7" t="n">
-        <v>55.1303155273531</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D7" t="n">
-        <v>55.1303155273531</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E7" t="n">
-        <v>55.1303155273531</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4729,16 +4731,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4756,19 +4758,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>1147.307171125027</v>
       </c>
       <c r="W7" t="n">
-        <v>892.3220711155946</v>
+        <v>875.2807667113186</v>
       </c>
       <c r="X7" t="n">
-        <v>646.930316449007</v>
+        <v>629.8890120447311</v>
       </c>
       <c r="Y7" t="n">
-        <v>419.5106457631153</v>
+        <v>402.4693413588393</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1278.040966659728</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.040966659728</v>
+        <v>462.9421322372</v>
       </c>
       <c r="D8" t="n">
-        <v>849.4592923969963</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E8" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
         <v>34.36045797446834</v>
@@ -4817,37 +4819,37 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R8" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="X8" t="n">
-        <v>1278.040966659728</v>
+        <v>935.1667901605819</v>
       </c>
       <c r="Y8" t="n">
-        <v>1278.040966659728</v>
+        <v>891.5238064999317</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.97316572479974</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C10" t="n">
-        <v>76.97316572479974</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D10" t="n">
-        <v>76.97316572479974</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E10" t="n">
-        <v>76.97316572479974</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
-        <v>76.97316572479974</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
         <v>33.94366860160834</v>
@@ -4960,25 +4962,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>688.8848573262783</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.937756271182</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.990655216085</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4987,25 +4989,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V10" t="n">
-        <v>1013.629614209975</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W10" t="n">
-        <v>741.6032097962661</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X10" t="n">
-        <v>496.2114551296786</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.7917844437869</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>724.4716545351282</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="C11" t="n">
-        <v>724.4716545351282</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="D11" t="n">
-        <v>724.4716545351282</v>
+        <v>849.4592923969963</v>
       </c>
       <c r="E11" t="n">
-        <v>724.4716545351282</v>
+        <v>420.8776181342646</v>
       </c>
       <c r="F11" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
@@ -5045,19 +5047,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M11" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N11" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P11" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q11" t="n">
         <v>1528.02936532736</v>
@@ -5072,19 +5074,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1491.944059190268</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1129.327109124095</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>724.4716545351282</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y11" t="n">
-        <v>724.4716545351282</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J12" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K12" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L12" t="n">
-        <v>1159.957753041174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M12" t="n">
-        <v>1159.957753041174</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N12" t="n">
-        <v>1159.957753041174</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O12" t="n">
-        <v>1159.957753041174</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.6507809638211</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C13" t="n">
-        <v>194.6507809638211</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D13" t="n">
-        <v>194.6507809638211</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E13" t="n">
-        <v>194.6507809638211</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5197,16 +5199,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>68.4625259617433</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>343.2209805328789</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M13" t="n">
-        <v>761.43086230084</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N13" t="n">
         <v>1181.483761245743</v>
@@ -5233,16 +5235,16 @@
         <v>1172.870982911978</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>1147.307171125027</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>875.2807667113186</v>
       </c>
       <c r="X13" t="n">
-        <v>613.8890703687</v>
+        <v>629.8890120447311</v>
       </c>
       <c r="Y13" t="n">
-        <v>386.4693996828083</v>
+        <v>402.4693413588393</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>464.8993883704147</v>
+        <v>566.035742016257</v>
       </c>
       <c r="C14" t="n">
-        <v>464.8993883704147</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D14" t="n">
-        <v>323.0738231583921</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E14" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5285,10 +5287,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O14" t="n">
         <v>687.9235674375537</v>
@@ -5303,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W14" t="n">
-        <v>1292.327975491451</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X14" t="n">
-        <v>873.1855120707613</v>
+        <v>974.3218657166036</v>
       </c>
       <c r="Y14" t="n">
-        <v>464.8993883704147</v>
+        <v>566.035742016257</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J15" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K15" t="n">
-        <v>804.6185656731816</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L15" t="n">
-        <v>1159.957753041174</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M15" t="n">
-        <v>1159.957753041174</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N15" t="n">
-        <v>1159.957753041174</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O15" t="n">
-        <v>1159.957753041174</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P15" t="n">
-        <v>1159.957753041174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q15" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R15" t="n">
         <v>1697.183430080417</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>851.7801684713901</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>851.7801684713901</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>685.9021756729128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H16" t="n">
         <v>33.94366860160834</v>
@@ -5458,28 +5460,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.644793662241</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V16" t="n">
-        <v>1270.644793662241</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W16" t="n">
-        <v>1043.598787190377</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>1043.598787190377</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y16" t="n">
-        <v>1043.598787190377</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.52534286434</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="C17" t="n">
-        <v>462.52534286434</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="D17" t="n">
-        <v>462.52534286434</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M17" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N17" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O17" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q17" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X17" t="n">
-        <v>1278.040966659728</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y17" t="n">
-        <v>869.7548429593813</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D18" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E18" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F18" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S18" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T18" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U18" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V18" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W18" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X18" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y18" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>141.0776450162207</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C19" t="n">
-        <v>141.0776450162207</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D19" t="n">
-        <v>141.0776450162207</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E19" t="n">
-        <v>141.0776450162207</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L19" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M19" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.0776450162207</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1789.095648603258</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C20" t="n">
-        <v>1350.953175786681</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D20" t="n">
-        <v>915.0433909611256</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194208</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>1375.081325612185</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M20" t="n">
-        <v>1375.081325612185</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N20" t="n">
-        <v>1375.081325612185</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O20" t="n">
-        <v>2035.921380153963</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P20" t="n">
-        <v>2123.562040472833</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q20" t="n">
         <v>2670.060826431428</v>
@@ -5780,22 +5782,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U20" t="n">
-        <v>2215.395219088166</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V20" t="n">
-        <v>2215.395219088166</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="W20" t="n">
-        <v>2215.395219088166</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="X20" t="n">
-        <v>2215.395219088166</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2215.395219088166</v>
+        <v>2078.225803160042</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K21" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L21" t="n">
-        <v>53.40121652862856</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M21" t="n">
-        <v>53.40121652862856</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N21" t="n">
-        <v>53.40121652862856</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O21" t="n">
-        <v>397.8892067392439</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R21" t="n">
         <v>1716.640978007438</v>
@@ -5884,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>903.8972536055596</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C22" t="n">
-        <v>731.3355420887846</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D22" t="n">
-        <v>565.4575492903073</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6995455410446</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F22" t="n">
-        <v>218.9924915028008</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862846</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862846</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862846</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
         <v>2154.361157596754</v>
@@ -5932,28 +5934,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S22" t="n">
-        <v>2651.821657388743</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T22" t="n">
-        <v>2405.942210967199</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U22" t="n">
-        <v>2127.509210220304</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V22" t="n">
-        <v>1840.553702090735</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.527297677026</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.135543010439</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.715872324547</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2513.567303138386</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="C23" t="n">
-        <v>2075.424830321809</v>
+        <v>1306.359999922571</v>
       </c>
       <c r="D23" t="n">
-        <v>1639.515045496254</v>
+        <v>1306.359999922571</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.740300654549</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F23" t="n">
-        <v>777.8728710637567</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G23" t="n">
-        <v>376.4750396870206</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>102.8456709385115</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K23" t="n">
-        <v>937.1959628966894</v>
+        <v>518.386598053036</v>
       </c>
       <c r="L23" t="n">
-        <v>2012.255929149549</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M23" t="n">
-        <v>2012.255929149549</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N23" t="n">
-        <v>2012.255929149549</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O23" t="n">
-        <v>2992.435595719855</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P23" t="n">
-        <v>3820.745470553251</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q23" t="n">
-        <v>4367.244256511845</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>4283.592382695682</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>4063.525155568721</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U23" t="n">
-        <v>3804.302852885738</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V23" t="n">
-        <v>3441.685902819564</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W23" t="n">
-        <v>3036.830448230598</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="X23" t="n">
-        <v>3036.830448230598</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="Y23" t="n">
-        <v>2628.544324530251</v>
+        <v>1744.502472739147</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.5166301215297</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>487.060168958172</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>391.9698801047252</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>297.8494654316789</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>214.4656270478405</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>129.0805373140244</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
-        <v>113.4085582906945</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>113.4085582906945</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>113.4085582906945</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>113.4085582906945</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>113.4085582906945</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>1194.301511777376</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.301511777376</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>1633.411868514706</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1633.411868514706</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>1750.584646609046</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>1687.129209057429</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>1556.950565388031</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>1380.614018387999</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>1181.496500449998</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>996.1737461831922</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>841.3063104220721</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>714.8205312012929</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>937.8409222071682</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>765.2792106903931</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>599.4012178919158</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>429.6432141426531</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>252.9361601044092</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
-        <v>173.9245702949268</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>448.6830248660624</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>866.8929066340235</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>1326.376773814936</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1768.635576972581</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>2188.304826198362</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2535.811720168704</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2685.765325990352</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2439.885879568807</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>2161.452878821913</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1874.497370692343</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1602.470966278635</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1357.079211612047</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>1129.659540926155</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1324.483577572625</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C26" t="n">
-        <v>1324.483577572625</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D26" t="n">
-        <v>888.5737927470695</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E26" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F26" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H26" t="n">
         <v>53.40121652862856</v>
@@ -6224,28 +6226,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M26" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N26" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O26" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2582.420166112558</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6254,22 +6256,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U26" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V26" t="n">
-        <v>2578.211735178569</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W26" t="n">
-        <v>2578.211735178569</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X26" t="n">
-        <v>2159.06927175788</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y26" t="n">
-        <v>1750.783148057533</v>
+        <v>1004.156428545654</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.8950539462408</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C28" t="n">
-        <v>590.3333424294657</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D28" t="n">
-        <v>424.4553496309884</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E28" t="n">
-        <v>254.6973458817257</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F28" t="n">
-        <v>77.99029184348186</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I28" t="n">
         <v>53.40121652862856</v>
@@ -6394,7 +6396,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6409,25 +6411,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.819457729425</v>
+        <v>2593.428272794124</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.94001130788</v>
+        <v>2347.54882637258</v>
       </c>
       <c r="U28" t="n">
-        <v>1986.507010560985</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.551502431416</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W28" t="n">
-        <v>1427.525098017707</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.13334335112</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y28" t="n">
-        <v>954.7136726652279</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>490.7743151332029</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C29" t="n">
-        <v>342.9481604582723</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D29" t="n">
-        <v>342.9481604582723</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E29" t="n">
-        <v>342.9481604582723</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F29" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G29" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
         <v>53.40121652862856</v>
@@ -6464,19 +6466,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L29" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M29" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O29" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P29" t="n">
         <v>1954.407975719776</v>
@@ -6494,19 +6496,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.11942280532</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="V29" t="n">
-        <v>1744.502472739146</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="W29" t="n">
-        <v>1744.502472739146</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X29" t="n">
-        <v>1325.360009318457</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y29" t="n">
-        <v>917.0738856181107</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="30">
@@ -6537,13 +6539,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J30" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K30" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L30" t="n">
         <v>1058.729261281022</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>966.8681021663376</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C31" t="n">
-        <v>794.3063906495626</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D31" t="n">
-        <v>628.4283978510853</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E31" t="n">
-        <v>458.6703941018225</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F31" t="n">
-        <v>281.9633400635787</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G31" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
         <v>53.40121652862856</v>
@@ -6631,7 +6633,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N31" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O31" t="n">
         <v>2154.361157596754</v>
@@ -6643,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.522190013251</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U31" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.524550651513</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W31" t="n">
-        <v>1631.498146237804</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X31" t="n">
-        <v>1386.106391571217</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y31" t="n">
-        <v>1158.686720885325</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1789.095648603258</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C32" t="n">
-        <v>1350.953175786681</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D32" t="n">
-        <v>915.0433909611256</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E32" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
         <v>53.40121652862856</v>
@@ -6698,19 +6700,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K32" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
@@ -6725,25 +6727,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2586.408952615265</v>
+        <v>2598.052496921307</v>
       </c>
       <c r="T32" t="n">
-        <v>2366.341725488303</v>
+        <v>2598.052496921307</v>
       </c>
       <c r="U32" t="n">
-        <v>2208.238112023947</v>
+        <v>2338.830194238324</v>
       </c>
       <c r="V32" t="n">
-        <v>2208.238112023947</v>
+        <v>1976.213244172151</v>
       </c>
       <c r="W32" t="n">
-        <v>2208.238112023947</v>
+        <v>1571.357789583184</v>
       </c>
       <c r="X32" t="n">
-        <v>1789.095648603258</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y32" t="n">
-        <v>1789.095648603258</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>903.8972536055599</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C34" t="n">
-        <v>731.3355420887848</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D34" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E34" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F34" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I34" t="n">
         <v>53.40121652862856</v>
@@ -6868,7 +6870,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6883,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T34" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U34" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V34" t="n">
-        <v>1840.553702090735</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W34" t="n">
-        <v>1568.527297677026</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X34" t="n">
-        <v>1323.135543010439</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1095.715872324547</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>743.9292024621484</v>
+        <v>1182.488464651585</v>
       </c>
       <c r="C35" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D35" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E35" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F35" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G35" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6965,22 +6967,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U35" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V35" t="n">
-        <v>1744.502472739146</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W35" t="n">
-        <v>1339.64701815018</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X35" t="n">
-        <v>1170.228772947056</v>
+        <v>1182.488464651585</v>
       </c>
       <c r="Y35" t="n">
-        <v>1170.228772947056</v>
+        <v>1182.488464651585</v>
       </c>
     </row>
     <row r="36">
@@ -7008,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
         <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7117,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>833.6484916323492</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="C38" t="n">
-        <v>776.3061159271172</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D38" t="n">
-        <v>776.3061159271172</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E38" t="n">
-        <v>342.5313710854123</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F38" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G38" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I38" t="n">
         <v>53.40121652862856</v>
@@ -7202,22 +7204,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U38" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V38" t="n">
-        <v>2087.376649238293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W38" t="n">
-        <v>2087.376649238293</v>
+        <v>2605.098122765485</v>
       </c>
       <c r="X38" t="n">
-        <v>1668.234185817604</v>
+        <v>2185.955659344796</v>
       </c>
       <c r="Y38" t="n">
-        <v>1259.948062117257</v>
+        <v>1777.669535644449</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>987.3566790731575</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C40" t="n">
-        <v>814.7949675563824</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D40" t="n">
-        <v>648.9169747579051</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E40" t="n">
-        <v>479.1589710086424</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F40" t="n">
-        <v>302.4519169703985</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>136.8606419962262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8606419962262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
         <v>53.40121652862856</v>
@@ -7342,7 +7344,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T40" t="n">
-        <v>2489.401636434797</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U40" t="n">
-        <v>2210.968635687902</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V40" t="n">
-        <v>1924.013127558332</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W40" t="n">
-        <v>1651.986723144624</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X40" t="n">
-        <v>1406.594968478036</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y40" t="n">
-        <v>1179.175297792145</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>743.9292024621484</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C41" t="n">
-        <v>743.9292024621484</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D41" t="n">
-        <v>743.9292024621484</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E41" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F41" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G41" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M41" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N41" t="n">
-        <v>1810.336013065103</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O41" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7439,22 +7441,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.11942280532</v>
+        <v>2193.951103192225</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739146</v>
+        <v>2193.951103192225</v>
       </c>
       <c r="W41" t="n">
-        <v>1339.64701815018</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="X41" t="n">
-        <v>1152.215326162495</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y41" t="n">
-        <v>743.9292024621484</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C42" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D42" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E42" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F42" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G42" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S42" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T42" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U42" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V42" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W42" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X42" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C43" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D43" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E43" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F43" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G43" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7573,7 +7575,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L43" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
@@ -7591,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T43" t="n">
-        <v>2402.763558715255</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U43" t="n">
-        <v>2124.330557968361</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V43" t="n">
-        <v>1837.375049838791</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W43" t="n">
-        <v>1565.348645425083</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X43" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y43" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>631.6741690478588</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C44" t="n">
-        <v>631.6741690478588</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D44" t="n">
-        <v>462.2278875652606</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E44" t="n">
-        <v>462.2278875652606</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F44" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G44" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M44" t="n">
-        <v>1107.976466382457</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N44" t="n">
-        <v>1528.02936532736</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O44" t="n">
-        <v>1528.02936532736</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U44" t="n">
-        <v>1477.116202953456</v>
+        <v>2504.525373644949</v>
       </c>
       <c r="V44" t="n">
-        <v>1477.116202953456</v>
+        <v>2504.525373644949</v>
       </c>
       <c r="W44" t="n">
-        <v>1477.116202953456</v>
+        <v>2504.525373644949</v>
       </c>
       <c r="X44" t="n">
-        <v>1057.973739532767</v>
+        <v>2504.525373644949</v>
       </c>
       <c r="Y44" t="n">
-        <v>1057.973739532767</v>
+        <v>2504.525373644949</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>358.5019935678207</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>358.5019935678207</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>358.5019935678207</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>778.554892512724</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>1198.607791457627</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>141.0776450162207</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C46" t="n">
-        <v>141.0776450162207</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D46" t="n">
-        <v>141.0776450162207</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E46" t="n">
-        <v>141.0776450162207</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M46" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.303983658873</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U46" t="n">
-        <v>1172.870982911978</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V46" t="n">
-        <v>885.9154747824084</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W46" t="n">
-        <v>613.8890703687</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X46" t="n">
-        <v>368.4973157021125</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.0776450162207</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
   </sheetData>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>384.0229637914489</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
@@ -8155,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.02620412648071</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,13 +8218,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>262.4693064538403</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,19 +8379,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8608,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>424.2958575201044</v>
@@ -8623,13 +8625,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,7 +8695,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.796249040161</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8845,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8854,10 +8856,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8933,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L15" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,10 +9245,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>88.52591951401018</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9480,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>347.9676668794094</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="P21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>15.65735940229753</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1091.811064127962</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>443.5458148861917</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,22 +10114,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10276,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>667.515206607857</v>
@@ -10586,10 +10588,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>385.2554146752025</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11461,13 +11463,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22547,25 +22549,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>251.8365372300152</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>141.942656160437</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.5909863936153</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>68.87734684739507</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22787,13 +22789,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>363.8953049716934</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22841,16 +22843,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>20.43155020079337</v>
       </c>
     </row>
     <row r="6">
@@ -22942,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -22951,7 +22953,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>153.965203041374</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -22996,10 +22998,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.7777793791924</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23021,19 +23023,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>19.87300437795386</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>360.9967086392994</v>
       </c>
     </row>
     <row r="9">
@@ -23191,7 +23193,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>121.3361600724711</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23227,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>83.83779588133106</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23261,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>40.52414525755466</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23312,16 +23314,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>53.44310247490591</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23425,7 +23427,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>15.83994225927069</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.7777793791924</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,13 +23497,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>331.2857529280131</v>
       </c>
       <c r="D14" t="n">
-        <v>291.1433774173975</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23510,7 +23512,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -23555,7 +23557,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>44.53059396242597</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18.87936968596779</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23738,16 +23740,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>95.67042942371188</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23789,10 +23791,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>68.87734684739507</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24023,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>107.1930383200168</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>330.3860971166854</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.2093236021123</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>296.6318846814853</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>164.4116209573887</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24494,22 +24496,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>268.0601802251812</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>81.78272691405301</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>287.4131549602296</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>107.1930383200168</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>223.1369608195781</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24917,22 +24919,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>11.52710886298222</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>100.1075023264405</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>247.2269760353902</v>
+        <v>259.3640708228727</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>376.9920961402312</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,16 +25444,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>336.4938234137934</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>5.14851852014975</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25628,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25682,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>85.963363583035</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>229.3936637186744</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>229.4233680290249</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>263.7988683095277</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>92.74998139753927</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25928,7 +25930,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>68.87734684739507</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>349196.9275162505</v>
+        <v>349196.9275162506</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349196.9275162505</v>
+        <v>349196.9275162506</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349196.9275162506</v>
+        <v>491235.6127411475</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681619.6910308294</v>
+        <v>491235.6127411476</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491235.6127411474</v>
+        <v>491235.6127411475</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491235.6127411475</v>
+        <v>491235.6127411476</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349196.9275162506</v>
+        <v>491235.6127411475</v>
       </c>
     </row>
   </sheetData>
@@ -26326,13 +26328,13 @@
         <v>102171.9869277625</v>
       </c>
       <c r="G2" t="n">
-        <v>102171.9869277625</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="H2" t="n">
         <v>143731.2720946097</v>
       </c>
       <c r="I2" t="n">
-        <v>199435.9992141296</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="J2" t="n">
         <v>143731.2720946097</v>
@@ -26341,10 +26343,10 @@
         <v>143731.2720946097</v>
       </c>
       <c r="L2" t="n">
-        <v>143731.2720946097</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="M2" t="n">
-        <v>143731.2720946097</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="N2" t="n">
         <v>143731.2720946097</v>
@@ -26353,7 +26355,7 @@
         <v>143731.2720946097</v>
       </c>
       <c r="P2" t="n">
-        <v>102171.9869277625</v>
+        <v>143731.2720946097</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>66662.77529471672</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>112829.1787276037</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>58530.97957731682</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,28 +26423,28 @@
         <v>31028.66177247689</v>
       </c>
       <c r="D4" t="n">
+        <v>31028.6617724769</v>
+      </c>
+      <c r="E4" t="n">
         <v>31028.66177247689</v>
       </c>
-      <c r="E4" t="n">
-        <v>31028.6617724769</v>
-      </c>
       <c r="F4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="G4" t="n">
-        <v>31028.66177247689</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="H4" t="n">
         <v>43649.82185483626</v>
       </c>
       <c r="I4" t="n">
-        <v>60566.81827325517</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="J4" t="n">
         <v>43649.82185483626</v>
       </c>
       <c r="K4" t="n">
-        <v>43649.82185483625</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="L4" t="n">
         <v>43649.82185483626</v>
@@ -26457,7 +26459,7 @@
         <v>43649.82185483626</v>
       </c>
       <c r="P4" t="n">
-        <v>31028.66177247689</v>
+        <v>43649.82185483626</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26484,13 @@
         <v>25797.18813722234</v>
       </c>
       <c r="G5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>66382.11269898004</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
         <v>40584.9245617577</v>
@@ -26500,16 +26502,16 @@
         <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
         <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-130472.7636416467</v>
       </c>
       <c r="C6" t="n">
-        <v>11718.53701806325</v>
+        <v>11718.53701806328</v>
       </c>
       <c r="D6" t="n">
-        <v>11718.53701806325</v>
+        <v>11718.53701806327</v>
       </c>
       <c r="E6" t="n">
-        <v>45346.13701806324</v>
+        <v>45346.13701806328</v>
       </c>
       <c r="F6" t="n">
-        <v>45346.13701806327</v>
+        <v>45346.13701806326</v>
       </c>
       <c r="G6" t="n">
-        <v>45346.13701806325</v>
+        <v>-7166.249616700923</v>
       </c>
       <c r="H6" t="n">
-        <v>-6126.243680001673</v>
+        <v>59496.52567801578</v>
       </c>
       <c r="I6" t="n">
-        <v>-40342.11048570928</v>
+        <v>59496.52567801579</v>
       </c>
       <c r="J6" t="n">
-        <v>59496.52567801579</v>
+        <v>-51517.93966697439</v>
       </c>
       <c r="K6" t="n">
-        <v>59496.52567801579</v>
+        <v>59496.52567801578</v>
       </c>
       <c r="L6" t="n">
-        <v>59496.52567801579</v>
+        <v>59496.52567801585</v>
       </c>
       <c r="M6" t="n">
+        <v>59496.52567801581</v>
+      </c>
+      <c r="N6" t="n">
         <v>59496.52567801576</v>
       </c>
-      <c r="N6" t="n">
-        <v>59496.52567801579</v>
-      </c>
       <c r="O6" t="n">
-        <v>59496.52567801579</v>
+        <v>965.5461006989644</v>
       </c>
       <c r="P6" t="n">
-        <v>45346.13701806325</v>
+        <v>59496.52567801574</v>
       </c>
     </row>
   </sheetData>
@@ -26802,13 +26804,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="I4" t="n">
-        <v>1091.811064127961</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
         <v>667.515206607857</v>
@@ -26820,16 +26822,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877528</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>384.0229637914489</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
@@ -34875,7 +34877,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.02620412648071</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,28 +35014,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>262.4693064538403</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35097,19 +35099,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35328,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>424.2958575201044</v>
@@ -35343,13 +35345,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,13 +35424,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697544</v>
@@ -35483,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.796249040161</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,10 +35576,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35653,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L15" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,13 +35898,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697544</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>88.52591951401018</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>347.9676668794094</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="P21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>15.65735940229753</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,16 +36372,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1091.811064127962</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>443.5458148861917</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36610,13 +36612,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36759,13 +36761,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36832,22 +36834,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36996,13 +36998,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>667.515206607857</v>
@@ -37233,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,10 +37308,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37707,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37856,7 +37858,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158827</v>
@@ -37941,10 +37943,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>385.2554146752025</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107790.2928907787</v>
+        <v>102411.2175047492</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23347074.56340345</v>
+        <v>23347074.56340344</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8645685.345390845</v>
+        <v>8645685.345390849</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>400.6317957608434</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>114.6874234957162</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>172.7433575369774</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.7717122625497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>67.79244973158337</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>25.30817366908145</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>291.6115384509264</v>
       </c>
       <c r="D8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>43.2065538240437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>200.2481571669428</v>
+        <v>209.8592185099734</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>383.0646100373297</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>176.2749727241118</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>25.30817366908145</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>137.8963981569088</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>102.4752951603978</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>318.1063006591519</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>106.0626366504663</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>285.5431361268264</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>327.9183258711724</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022953</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2140,16 +2140,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>28.60468344882636</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>185.557375067808</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>132.8051127118025</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>267.960108666678</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
@@ -2380,13 +2380,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>257.62495382267</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>64.20271022144281</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2620,10 +2620,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>75.86622810093029</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>271.704973234462</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2800,7 +2800,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>149.4370413361365</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>224.258184298205</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>71.28824621501914</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3091,13 +3091,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193496</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>75.86622810093029</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>20.05537278796783</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>155.5869679636097</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361676</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>64.31307662928364</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>45.91568880648644</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>170.6667160731183</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>267.9601086666781</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>163.880098258614</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>267.9601086666781</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170476</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>94.21878984361676</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1581.337547761512</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C2" t="n">
-        <v>1581.337547761512</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D2" t="n">
-        <v>1152.75587349878</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.75587349878</v>
+        <v>840.020081554954</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1581.337547761512</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1581.337547761512</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1581.337547761512</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1581.337547761512</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1581.337547761512</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.0776450162207</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="C4" t="n">
-        <v>141.0776450162207</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0776450162207</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="E4" t="n">
-        <v>141.0776450162207</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>776.6474912709808</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>531.2557366043933</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>531.2557366043933</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>890.3927724551322</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C5" t="n">
-        <v>890.3927724551322</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4570,22 +4570,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O5" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4606,13 +4606,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.183430080417</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="X5" t="n">
-        <v>1278.040966659728</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="Y5" t="n">
-        <v>890.3927724551322</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.6507226398521</v>
+        <v>451.6896561077215</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>279.1279445909465</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>279.1279445909465</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>279.1279445909465</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>102.4208905527027</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>102.4208905527027</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4737,7 +4737,7 @@
         <v>815.3347072823371</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V7" t="n">
-        <v>1147.307171125027</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W7" t="n">
-        <v>875.2807667113186</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X7" t="n">
-        <v>629.8890120447311</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="Y7" t="n">
-        <v>402.4693413588393</v>
+        <v>451.6896561077215</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>891.5238064999317</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="C8" t="n">
-        <v>462.9421322372</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D8" t="n">
-        <v>34.36045797446834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E8" t="n">
-        <v>34.36045797446834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R8" t="n">
         <v>1697.183430080417</v>
@@ -4837,19 +4837,19 @@
         <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1354.309253581271</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V8" t="n">
-        <v>1354.309253581271</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W8" t="n">
-        <v>1354.309253581271</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X8" t="n">
-        <v>935.1667901605819</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y8" t="n">
-        <v>891.5238064999317</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L9" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M9" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N9" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O9" t="n">
         <v>739.9048540962709</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E10" t="n">
         <v>33.94366860160834</v>
@@ -4968,19 +4968,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1641.225609687538</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4992,22 +4992,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V10" t="n">
-        <v>970.6001170867833</v>
+        <v>1206.77142073759</v>
       </c>
       <c r="W10" t="n">
-        <v>698.5737126730747</v>
+        <v>1206.77142073759</v>
       </c>
       <c r="X10" t="n">
-        <v>453.1819580064872</v>
+        <v>961.3796660710025</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.7622873205955</v>
+        <v>733.9599953851107</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.040966659728</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D11" t="n">
-        <v>849.4592923969963</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E11" t="n">
-        <v>420.8776181342646</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
@@ -5041,25 +5041,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O11" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P11" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q11" t="n">
         <v>1528.02936532736</v>
@@ -5077,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X11" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y11" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J12" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5199,22 +5199,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K13" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L13" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M13" t="n">
-        <v>1181.483761245743</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N13" t="n">
-        <v>1181.483761245743</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O13" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P13" t="n">
         <v>1528.990655216085</v>
@@ -5223,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.307171125027</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W13" t="n">
-        <v>875.2807667113186</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X13" t="n">
-        <v>629.8890120447311</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y13" t="n">
-        <v>402.4693413588393</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>566.035742016257</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="C14" t="n">
-        <v>462.52534286434</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="D14" t="n">
-        <v>462.52534286434</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5281,10 +5281,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M14" t="n">
         <v>687.9235674375537</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U14" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V14" t="n">
-        <v>1393.464329137293</v>
+        <v>1155.796707338151</v>
       </c>
       <c r="W14" t="n">
-        <v>1393.464329137293</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="X14" t="n">
-        <v>974.3218657166036</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="Y14" t="n">
-        <v>566.035742016257</v>
+        <v>750.9412527491843</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J15" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>437.0247332457074</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L15" t="n">
-        <v>857.0776321906106</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M15" t="n">
-        <v>857.0776321906106</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N15" t="n">
-        <v>857.0776321906106</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O15" t="n">
-        <v>1277.130531135514</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P15" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q15" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R15" t="n">
         <v>1697.183430080417</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1075.159834655252</v>
+        <v>1492.600955747027</v>
       </c>
       <c r="C17" t="n">
-        <v>1075.159834655252</v>
+        <v>1492.600955747027</v>
       </c>
       <c r="D17" t="n">
-        <v>1075.159834655252</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E17" t="n">
-        <v>1075.159834655252</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F17" t="n">
-        <v>743.9292024621484</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G17" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
         <v>488.6559039815464</v>
@@ -5521,46 +5521,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M17" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N17" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365255</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.588421776288</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.445958355599</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="Y17" t="n">
-        <v>1075.159834655252</v>
+        <v>1918.900526231935</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
         <v>79.46488968908616</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.4772326516127</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C19" t="n">
-        <v>568.9155211348376</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D19" t="n">
-        <v>403.0375283363603</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E19" t="n">
-        <v>233.2795245870976</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F19" t="n">
-        <v>56.57247054885377</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K19" t="n">
-        <v>414.7393562644543</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324155</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M19" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O19" t="n">
         <v>2154.361157596754</v>
@@ -5700,25 +5700,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S19" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T19" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U19" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V19" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W19" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X19" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y19" t="n">
-        <v>933.2958513705998</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2078.225803160042</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C20" t="n">
-        <v>1640.083330343465</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D20" t="n">
-        <v>1204.173545517909</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E20" t="n">
-        <v>770.3988006762045</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F20" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G20" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
         <v>488.6559039815464</v>
@@ -5758,22 +5758,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M20" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N20" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O20" t="n">
-        <v>2471.176067606882</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
@@ -5782,22 +5782,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U20" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V20" t="n">
-        <v>2078.225803160042</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W20" t="n">
-        <v>2078.225803160042</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X20" t="n">
-        <v>2078.225803160042</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y20" t="n">
-        <v>2078.225803160042</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
         <v>1716.640978007438</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5937,25 +5937,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S22" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T22" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U22" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V22" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W22" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X22" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y22" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1744.502472739147</v>
+        <v>1015.012768265996</v>
       </c>
       <c r="C23" t="n">
-        <v>1306.359999922571</v>
+        <v>1015.012768265996</v>
       </c>
       <c r="D23" t="n">
-        <v>1306.359999922571</v>
+        <v>1015.012768265996</v>
       </c>
       <c r="E23" t="n">
-        <v>1172.213421425801</v>
+        <v>1015.012768265996</v>
       </c>
       <c r="F23" t="n">
         <v>744.3459918350084</v>
@@ -5983,58 +5983,58 @@
         <v>342.9481604582723</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>518.386598053036</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M23" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N23" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O23" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U23" t="n">
-        <v>2107.119422805321</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V23" t="n">
-        <v>1744.502472739147</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W23" t="n">
-        <v>1744.502472739147</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X23" t="n">
-        <v>1744.502472739147</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="Y23" t="n">
-        <v>1744.502472739147</v>
+        <v>1015.012768265996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
         <v>79.46488968908616</v>
@@ -6138,13 +6138,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6232,13 +6232,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M26" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N26" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
@@ -6256,22 +6256,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2449.993599304466</v>
+        <v>2605.209603985526</v>
       </c>
       <c r="U26" t="n">
-        <v>2190.771296621483</v>
+        <v>2345.987301302543</v>
       </c>
       <c r="V26" t="n">
-        <v>1828.15434655531</v>
+        <v>1983.37035123637</v>
       </c>
       <c r="W26" t="n">
-        <v>1423.298891966343</v>
+        <v>1578.514896647403</v>
       </c>
       <c r="X26" t="n">
-        <v>1004.156428545654</v>
+        <v>1578.514896647403</v>
       </c>
       <c r="Y26" t="n">
-        <v>1004.156428545654</v>
+        <v>1170.228772947056</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C28" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D28" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E28" t="n">
-        <v>624.2616690759949</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F28" t="n">
-        <v>447.554615037751</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G28" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
         <v>53.40121652862856</v>
@@ -6396,7 +6396,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2593.428272794124</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T28" t="n">
-        <v>2347.54882637258</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U28" t="n">
-        <v>2069.115825625685</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V28" t="n">
-        <v>2069.115825625685</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W28" t="n">
-        <v>1797.089421211977</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X28" t="n">
-        <v>1551.697666545389</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.277995859497</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1789.095648603258</v>
+        <v>1644.451058318337</v>
       </c>
       <c r="C29" t="n">
-        <v>1350.953175786681</v>
+        <v>1206.30858550176</v>
       </c>
       <c r="D29" t="n">
-        <v>915.0433909611256</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="E29" t="n">
-        <v>481.2686461194208</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
         <v>53.40121652862856</v>
@@ -6469,16 +6469,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L29" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="O29" t="n">
         <v>1293.567921177998</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1293.567921177998</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1293.567921177998</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1954.407975719776</v>
       </c>
       <c r="P29" t="n">
         <v>1954.407975719776</v>
@@ -6493,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U29" t="n">
-        <v>2215.395219088166</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V29" t="n">
-        <v>2215.395219088166</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W29" t="n">
-        <v>2215.395219088166</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="X29" t="n">
-        <v>2215.395219088166</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="Y29" t="n">
-        <v>2215.395219088166</v>
+        <v>1918.900526231935</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>922.1364226482442</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C31" t="n">
-        <v>749.5747111314691</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D31" t="n">
-        <v>583.6967183329918</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E31" t="n">
-        <v>413.9387145837291</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F31" t="n">
-        <v>237.2316605454853</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G31" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H31" t="n">
         <v>53.40121652862856</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T31" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U31" t="n">
-        <v>2145.748379262989</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V31" t="n">
-        <v>1858.792871133419</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W31" t="n">
-        <v>1586.766466719711</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X31" t="n">
-        <v>1341.374712053123</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.955041367231</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>743.9292024621484</v>
+        <v>1409.01188313462</v>
       </c>
       <c r="C32" t="n">
-        <v>743.9292024621484</v>
+        <v>970.8694103180437</v>
       </c>
       <c r="D32" t="n">
-        <v>743.9292024621484</v>
+        <v>970.8694103180437</v>
       </c>
       <c r="E32" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F32" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G32" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I32" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L32" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M32" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N32" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
@@ -6727,25 +6727,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2598.052496921307</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T32" t="n">
-        <v>2598.052496921307</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U32" t="n">
-        <v>2338.830194238324</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V32" t="n">
-        <v>1976.213244172151</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W32" t="n">
-        <v>1571.357789583184</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="X32" t="n">
-        <v>1152.215326162495</v>
+        <v>1409.01188313462</v>
       </c>
       <c r="Y32" t="n">
-        <v>743.9292024621484</v>
+        <v>1409.01188313462</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C34" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D34" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E34" t="n">
-        <v>624.2616690759949</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F34" t="n">
-        <v>447.554615037751</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G34" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H34" t="n">
         <v>142.0611657539532</v>
@@ -6870,7 +6870,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6882,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S34" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T34" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U34" t="n">
-        <v>2145.748379262988</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V34" t="n">
-        <v>2069.115825625685</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W34" t="n">
-        <v>1797.089421211977</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X34" t="n">
-        <v>1551.697666545389</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y34" t="n">
-        <v>1324.277995859497</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1182.488464651585</v>
+        <v>512.2184310291439</v>
       </c>
       <c r="C35" t="n">
-        <v>744.3459918350084</v>
+        <v>74.07595821256717</v>
       </c>
       <c r="D35" t="n">
-        <v>744.3459918350084</v>
+        <v>74.07595821256717</v>
       </c>
       <c r="E35" t="n">
-        <v>744.3459918350084</v>
+        <v>74.07595821256717</v>
       </c>
       <c r="F35" t="n">
-        <v>744.3459918350084</v>
+        <v>74.07595821256717</v>
       </c>
       <c r="G35" t="n">
-        <v>342.9481604582723</v>
+        <v>74.07595821256717</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6955,10 +6955,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6967,22 +6967,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V35" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W35" t="n">
-        <v>1339.647018150181</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X35" t="n">
-        <v>1182.488464651585</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y35" t="n">
-        <v>1182.488464651585</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C37" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D37" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E37" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7122,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T37" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U37" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V37" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W37" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X37" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y37" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1351.369965159541</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C38" t="n">
-        <v>1351.369965159541</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D38" t="n">
-        <v>915.4601803339856</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E38" t="n">
-        <v>481.6854354922808</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F38" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G38" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
         <v>53.40121652862856</v>
@@ -7177,16 +7177,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L38" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M38" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
@@ -7213,13 +7213,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W38" t="n">
-        <v>2605.098122765485</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X38" t="n">
-        <v>2185.955659344796</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y38" t="n">
-        <v>1777.669535644449</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C40" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D40" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E40" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F40" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H40" t="n">
         <v>53.40121652862856</v>
@@ -7344,7 +7344,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7359,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T40" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U40" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V40" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W40" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X40" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y40" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1789.095648603258</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C41" t="n">
-        <v>1350.953175786681</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D41" t="n">
-        <v>915.0433909611256</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E41" t="n">
-        <v>481.2686461194209</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F41" t="n">
-        <v>53.40121652862857</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L41" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M41" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U41" t="n">
-        <v>2193.951103192225</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V41" t="n">
-        <v>2193.951103192225</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W41" t="n">
-        <v>1789.095648603258</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X41" t="n">
-        <v>1789.095648603258</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y41" t="n">
-        <v>1789.095648603258</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.1364226482442</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C43" t="n">
-        <v>749.5747111314691</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D43" t="n">
-        <v>583.6967183329918</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E43" t="n">
-        <v>413.9387145837291</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F43" t="n">
-        <v>237.2316605454853</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G43" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7575,7 +7575,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L43" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
@@ -7593,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S43" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T43" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U43" t="n">
-        <v>2145.748379262989</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V43" t="n">
-        <v>1858.792871133419</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W43" t="n">
-        <v>1586.766466719711</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.374712053123</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.955041367231</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2078.225803160042</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C44" t="n">
-        <v>1640.083330343465</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D44" t="n">
-        <v>1204.173545517909</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E44" t="n">
-        <v>770.3988006762045</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F44" t="n">
-        <v>342.5313710854123</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G44" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L44" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M44" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N44" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
@@ -7678,22 +7678,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U44" t="n">
-        <v>2504.525373644949</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V44" t="n">
-        <v>2504.525373644949</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W44" t="n">
-        <v>2504.525373644949</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X44" t="n">
-        <v>2504.525373644949</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y44" t="n">
-        <v>2504.525373644949</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
         <v>79.46488968908616</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.8950539462408</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C46" t="n">
-        <v>590.3333424294657</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D46" t="n">
-        <v>424.4553496309884</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E46" t="n">
-        <v>254.6973458817257</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F46" t="n">
-        <v>77.99029184348186</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862857</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7812,7 +7812,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
         <v>1292.433105213328</v>
@@ -7833,25 +7833,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U46" t="n">
-        <v>1986.507010560985</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V46" t="n">
-        <v>1699.551502431416</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W46" t="n">
-        <v>1427.525098017707</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X46" t="n">
-        <v>1182.13334335112</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y46" t="n">
-        <v>954.7136726652279</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
   </sheetData>
@@ -8139,22 +8139,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>384.0229637914489</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8218,25 +8218,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M5" t="n">
+      <c r="Q5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8385,10 +8385,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>369.8475292559658</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P9" t="n">
         <v>424.2958575201044</v>
@@ -8616,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>56.52305090189816</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -8929,13 +8929,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P15" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9406,7 +9406,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>200.8936957823703</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>469.6822035600076</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9880,16 +9880,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>667.515206607857</v>
@@ -10117,19 +10117,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L32" t="n">
-        <v>585.1784344521124</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>667.515206607857</v>
@@ -10591,7 +10591,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10825,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>667.515206607857</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11299,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O44" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -22549,7 +22549,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -22558,16 +22558,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>22.95695953404089</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>141.942656160437</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -22716,13 +22716,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>68.87734684739507</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>96.56278283259397</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22846,13 +22846,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>27.08710873936917</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.43155020079337</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -22959,7 +22959,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>70.71070283494585</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.7777793791924</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23023,16 +23023,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>142.1495096374845</v>
       </c>
       <c r="D8" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -23041,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -23086,10 +23086,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>360.9967086392994</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23181,13 +23181,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -23232,16 +23232,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>83.83779588133106</v>
+        <v>74.22673453830041</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>40.52414525755466</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23317,13 +23317,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.6760660623706</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23427,7 +23427,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>258.7777793791924</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>105.0414389630128</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>331.2857529280131</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>40.88447990635984</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23664,7 +23664,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>68.87734684739507</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>146.0075508504735</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>95.67042942371188</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7958207444076</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23971,19 +23971,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>330.3860971166854</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>229.3936637186744</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24208,16 +24208,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>296.6318846814853</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>155.6286466282064</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164.4116209573887</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24496,7 +24496,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>153.663844634249</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>81.78272691405301</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>150.3316015455966</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>107.1930383200168</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24748,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24919,13 +24919,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>205.1788130950828</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.52710886298222</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>90.92021546249565</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>208.2197249473435</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.1834802232481</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>259.3640708228727</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>336.4938234137934</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.0353499799959</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>85.963363583035</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9909301198043</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>92.74998139753927</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9909301198043</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>44.28436272291246</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>491235.6127411476</v>
+        <v>491235.6127411475</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491235.6127411476</v>
+        <v>491235.6127411475</v>
       </c>
     </row>
     <row r="14">
@@ -26328,25 +26328,25 @@
         <v>102171.9869277625</v>
       </c>
       <c r="G2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="H2" t="n">
         <v>143731.2720946097</v>
       </c>
       <c r="I2" t="n">
+        <v>143731.2720946097</v>
+      </c>
+      <c r="J2" t="n">
         <v>143731.2720946098</v>
-      </c>
-      <c r="J2" t="n">
-        <v>143731.2720946097</v>
       </c>
       <c r="K2" t="n">
         <v>143731.2720946097</v>
       </c>
       <c r="L2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="M2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="N2" t="n">
         <v>143731.2720946097</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66662.77529471672</v>
+        <v>66662.77529471669</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>58530.97957731682</v>
+        <v>58530.97957731676</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>31028.66177247689</v>
       </c>
       <c r="F4" t="n">
-        <v>31028.66177247689</v>
+        <v>31028.6617724769</v>
       </c>
       <c r="G4" t="n">
         <v>43649.82185483626</v>
@@ -26456,7 +26456,7 @@
         <v>43649.82185483626</v>
       </c>
       <c r="O4" t="n">
-        <v>43649.82185483626</v>
+        <v>43649.82185483625</v>
       </c>
       <c r="P4" t="n">
         <v>43649.82185483626</v>
@@ -26484,13 +26484,13 @@
         <v>25797.18813722234</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
         <v>40584.9245617577</v>
@@ -26502,16 +26502,16 @@
         <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
         <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-130472.7636416467</v>
+        <v>-131212.1202535623</v>
       </c>
       <c r="C6" t="n">
-        <v>11718.53701806328</v>
+        <v>10979.1804061476</v>
       </c>
       <c r="D6" t="n">
-        <v>11718.53701806327</v>
+        <v>10979.1804061476</v>
       </c>
       <c r="E6" t="n">
-        <v>45346.13701806328</v>
+        <v>44606.7804061476</v>
       </c>
       <c r="F6" t="n">
-        <v>45346.13701806326</v>
+        <v>44606.7804061476</v>
       </c>
       <c r="G6" t="n">
-        <v>-7166.249616700923</v>
+        <v>-7661.139845282196</v>
       </c>
       <c r="H6" t="n">
-        <v>59496.52567801578</v>
+        <v>59001.63544943453</v>
       </c>
       <c r="I6" t="n">
-        <v>59496.52567801579</v>
+        <v>59001.63544943453</v>
       </c>
       <c r="J6" t="n">
-        <v>-51517.93966697439</v>
+        <v>-52012.82989555565</v>
       </c>
       <c r="K6" t="n">
-        <v>59496.52567801578</v>
+        <v>59001.63544943453</v>
       </c>
       <c r="L6" t="n">
-        <v>59496.52567801585</v>
+        <v>59001.6354494345</v>
       </c>
       <c r="M6" t="n">
-        <v>59496.52567801581</v>
+        <v>59001.63544943453</v>
       </c>
       <c r="N6" t="n">
-        <v>59496.52567801576</v>
+        <v>59001.63544943453</v>
       </c>
       <c r="O6" t="n">
-        <v>965.5461006989644</v>
+        <v>470.6558721177717</v>
       </c>
       <c r="P6" t="n">
-        <v>59496.52567801574</v>
+        <v>59001.63544943453</v>
       </c>
     </row>
   </sheetData>
@@ -26804,13 +26804,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
         <v>667.515206607857</v>
@@ -26822,16 +26822,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877528</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>384.0229637914489</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34938,25 +34938,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M5" t="n">
+      <c r="Q5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35105,10 +35105,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>369.8475292559658</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P9" t="n">
         <v>424.2958575201044</v>
@@ -35336,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>56.52305090189816</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35424,13 +35424,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697544</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35649,13 +35649,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P15" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36126,7 +36126,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36135,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>200.8936957823703</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>469.6822035600076</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36372,13 +36372,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36600,16 +36600,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>667.515206607857</v>
@@ -36761,13 +36761,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36837,19 +36837,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L32" t="n">
-        <v>585.1784344521124</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>667.515206607857</v>
@@ -37235,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37311,7 +37311,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37545,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>667.515206607857</v>
@@ -37709,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37791,13 +37791,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37943,10 +37943,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38019,22 +38019,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O44" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38180,10 +38180,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
